--- a/biology/Zoologie/Réserve_naturelle_du_Grand_Arctique/Réserve_naturelle_du_Grand_Arctique.xlsx
+++ b/biology/Zoologie/Réserve_naturelle_du_Grand_Arctique/Réserve_naturelle_du_Grand_Arctique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_naturelle_du_Grand_Arctique</t>
+          <t>Réserve_naturelle_du_Grand_Arctique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La réserve naturelle du Grand Arctique (en russe : Большой Арктический государственный природный заповедник, Bolchoï Arktitcheski gossoudarstvenny prirodny zapovednik) est une réserve naturelle située dans le kraï de Krasnoïarsk en Russie. Avec une superficie de 41 692 km2 (dont 9 809 km2 d'eau), c'est la réserve naturelle la plus vaste de Russie et l'une des plus grandes du monde. Elle ne doit pas être confondue avec le parc national de l'Arctique russe, plus à l'ouest.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_naturelle_du_Grand_Arctique</t>
+          <t>Réserve_naturelle_du_Grand_Arctique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est instaurée le 11 mai 1993 par la résolution n° 431 du gouvernement de la fédération de Russie. Les réserves naturelles sont désignées en russe par le terme de zapovednik que l'on peut traduire par « sanctuaire ».
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_naturelle_du_Grand_Arctique</t>
+          <t>Réserve_naturelle_du_Grand_Arctique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Du fait de sa structure morcelée, la réserve s'étend sur 1 000 km de l'ouest à l'est et sur 500 km du nord au sud. Elle est divisée en sept secteurs :
 Dikson-Sibiriakovski (200 000 ha)
